--- a/biology/Médecine/Jonathan_Leunbach/Jonathan_Leunbach.xlsx
+++ b/biology/Médecine/Jonathan_Leunbach/Jonathan_Leunbach.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jonathan Høegh von Leunbach, né le 16 décembre 1884, décédé le 24 septembre 1955, est un médecin danois.
-Pendant l'entre deux guerres, il a aidé significativement les femmes aux revenus modestes dans le domaine de l'éducation sexuelle, du contrôle des naissances et de l'avortement[1].
-En tant que socialiste, il était favorables aux idées politiques sexuelles du psychiatre et psychanalyste austro-hongrois, Wilhelm Reich[1].
+Pendant l'entre deux guerres, il a aidé significativement les femmes aux revenus modestes dans le domaine de l'éducation sexuelle, du contrôle des naissances et de l'avortement.
+En tant que socialiste, il était favorables aux idées politiques sexuelles du psychiatre et psychanalyste austro-hongrois, Wilhelm Reich.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Hertha Pataky Riese, Jonathan Høegh Leunbach et World League for Sexual Reform, Sexual reform congress : Copenhagen 1.-5.:VII:1928, Copenhagen ; Leipzig, Levin &amp; Munksgaard ; G. Thieme, 1929 (OCLC 909842399)
 (en) Jonathan Høegh von Leunbach (trad. Jonathan Høegh von Leunbach), Birth Control, Abortion and Sterilization, London, Kegan Paul &amp; Co., 1930
